--- a/data/trans_orig/P14C12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD31819-7829-416E-8C59-937E78EC21B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{411AC21A-18E1-433C-B229-C3C8F5C30F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{307AB976-CEF7-4A74-AC16-93D6FDFF1EA5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC1A2B46-EFE7-4E95-B913-9352553298E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -158,10 +158,10 @@
     <t>36,11%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>51,67%</t>
@@ -170,19 +170,19 @@
     <t>41,43%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>48,94%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>22,5%</t>
@@ -194,16 +194,16 @@
     <t>39,9%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>55,72%</t>
   </si>
   <si>
     <t>25,83%</t>
@@ -215,7 +215,7 @@
     <t>18,67%</t>
   </si>
   <si>
-    <t>52,53%</t>
+    <t>50,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -254,10 +254,10 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>61,18%</t>
@@ -272,19 +272,19 @@
     <t>64,94%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>20,76%</t>
@@ -299,16 +299,16 @@
     <t>24,55%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>19,89%</t>
+    <t>23,71%</t>
   </si>
   <si>
     <t>18,07%</t>
@@ -323,10 +323,10 @@
     <t>10,51%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -741,7 +741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF1604E-B449-4A7B-A432-05F0E29AC133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AE46BB-4C55-411A-87D7-E1798F1DF39D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C12-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{411AC21A-18E1-433C-B229-C3C8F5C30F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F3E894-6277-47BD-A332-E427845BE0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC1A2B46-EFE7-4E95-B913-9352553298E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30E1C1E2-7151-4908-A1A7-65FCB33AC9F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
-  <si>
-    <t>Población según el tiempo de diagnóstico de angina de pecho en 2015 (Tasa respuesta: 0,65%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+  <si>
+    <t>Población según el tiempo de diagnóstico de angina de pecho en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>87,23%</t>
   </si>
   <si>
-    <t>61,27%</t>
+    <t>63,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>68,94%</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,73%</t>
+    <t>36,89%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +140,13 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>44,12%</t>
+    <t>43,57%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>22,58%</t>
+    <t>22,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,10 +158,10 @@
     <t>36,11%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>51,67%</t>
@@ -170,40 +170,37 @@
     <t>41,43%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
   </si>
   <si>
     <t>48,94%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
     <t>39,9%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>55,72%</t>
+    <t>55,31%</t>
   </si>
   <si>
     <t>25,83%</t>
@@ -215,7 +212,7 @@
     <t>18,67%</t>
   </si>
   <si>
-    <t>50,24%</t>
+    <t>53,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -254,79 +251,76 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>61,18%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>82,71%</t>
   </si>
   <si>
     <t>64,94%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>23,71%</t>
+    <t>28,73%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -741,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AE46BB-4C55-411A-87D7-E1798F1DF39D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DDE366-4347-4196-A722-B3B4DCB18AEB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1143,7 +1137,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -1152,13 +1146,13 @@
         <v>5280</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1173,13 +1167,13 @@
         <v>1301</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1188,13 +1182,13 @@
         <v>1169</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1203,13 +1197,13 @@
         <v>2470</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,7 +1259,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1277,7 +1271,7 @@
         <v>2711</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
@@ -1298,7 +1292,7 @@
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1307,7 +1301,7 @@
         <v>2711</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>22</v>
@@ -1328,7 +1322,7 @@
         <v>1152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
@@ -1349,7 +1343,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1358,13 +1352,13 @@
         <v>1152</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,7 +1379,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1397,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>37</v>
@@ -1409,13 +1403,13 @@
         <v>1026</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,13 +1477,13 @@
         <v>17704</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -1498,13 +1492,13 @@
         <v>11736</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -1513,13 +1507,13 @@
         <v>29441</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,13 +1528,13 @@
         <v>7148</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1549,13 +1543,13 @@
         <v>3982</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1564,13 +1558,13 @@
         <v>11130</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,13 +1579,13 @@
         <v>1301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1600,13 +1594,13 @@
         <v>3466</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1615,13 +1609,13 @@
         <v>4767</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,7 +1671,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
